--- a/biology/Botanique/Benjamin_Alvord/Benjamin_Alvord.xlsx
+++ b/biology/Botanique/Benjamin_Alvord/Benjamin_Alvord.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Benjamin Alvord (né le 18 août 1813 à Rutland (Vermont), et décédé le 16 octobre 1884 à Washington, District of Columbia) est un brigadier-général de l'Union. Il est enterré à Rutland, dans l'État du Vermont[1].
+Benjamin Alvord (né le 18 août 1813 à Rutland (Vermont), et décédé le 16 octobre 1884 à Washington, District of Columbia) est un brigadier-général de l'Union. Il est enterré à Rutland, dans l'État du Vermont.
 </t>
         </is>
       </c>
@@ -512,16 +524,11 @@
           <t>Avant la guerre de Sécession</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Benjamin Alvord est diplômé de West Point en 1833[note 1]. Il est promu second lieutenant le 1er juillet 1833 dans le 4th United States Infantry et premier lieutenant le 23 septembre 1836[2].
-Les guerres séminoles
-Benjamin Alvord participe aux guerres séminoles en Floride avec le 4th United States Infantry.
-Au début de 1836, il participe aux accrochages de camp Izar et aux combats à Oloklikaha et à Tholonotesessa Creek[3].
-Guerre américano-mexicaine
-Il participe ensuite à la guerre américano-mexicaine. Il combat à Palo Alto et à Resaca de la Palma. Il participe à la marche de Vera Cruz vers Mexico.
-Le 9 septembre 1846, il est promu capitaine[2]. Sa promotion au grade de commandant intervient le 15 août 1847. Il est affecté en tant que trésorier-payeur.
-Il est affecté à l'académie militaire de West Point en tant que professeur assistant de philosophie naturelle et expérimentale[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benjamin Alvord est diplômé de West Point en 1833[note 1]. Il est promu second lieutenant le 1er juillet 1833 dans le 4th United States Infantry et premier lieutenant le 23 septembre 1836.
 </t>
         </is>
       </c>
@@ -547,13 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Guerre de Sécession</t>
+          <t>Avant la guerre de Sécession</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Au début du conflit, Benjamin Alvord est chef trésorier-payeur du département de l'Oregon. Il est ensuite promu brigadier-général des volontaires (15 avril 1862) et prend le commandement de ce département.
-Pendant le conflit, son activité concerne le nord-ouest des États-Unis. Il démissionne de sa commission des volontaires en août 1865. Il est alors affecté à l'Est, en tant que trésorier-payeur à New York[1].
+          <t>Les guerres séminoles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benjamin Alvord participe aux guerres séminoles en Floride avec le 4th United States Infantry.
+Au début de 1836, il participe aux accrochages de camp Izar et aux combats à Oloklikaha et à Tholonotesessa Creek.
 </t>
         </is>
       </c>
@@ -579,13 +592,88 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Avant la guerre de Sécession</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Guerre américano-mexicaine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il participe ensuite à la guerre américano-mexicaine. Il combat à Palo Alto et à Resaca de la Palma. Il participe à la marche de Vera Cruz vers Mexico.
+Le 9 septembre 1846, il est promu capitaine. Sa promotion au grade de commandant intervient le 15 août 1847. Il est affecté en tant que trésorier-payeur.
+Il est affecté à l'académie militaire de West Point en tant que professeur assistant de philosophie naturelle et expérimentale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Benjamin_Alvord</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benjamin_Alvord</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Guerre de Sécession</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début du conflit, Benjamin Alvord est chef trésorier-payeur du département de l'Oregon. Il est ensuite promu brigadier-général des volontaires (15 avril 1862) et prend le commandement de ce département.
+Pendant le conflit, son activité concerne le nord-ouest des États-Unis. Il démissionne de sa commission des volontaires en août 1865. Il est alors affecté à l'Est, en tant que trésorier-payeur à New York.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Benjamin_Alvord</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Benjamin_Alvord</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Après la guerre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Benjamin Alvord est nommé trésorier-payeur en chef du district d'Omaha en 1867. Le 15 avril 1869, il est muté dans le district de la Platte.
-En 1872, il est nommé trésorier-payeur général de l'armée avec le grade de colonel. Il est ensuite promu brigadier-général le 22 juin 1876[2]. Il part à la retraite le 8 juin 1880.
+En 1872, il est nommé trésorier-payeur général de l'armée avec le grade de colonel. Il est ensuite promu brigadier-général le 22 juin 1876. Il part à la retraite le 8 juin 1880.
 </t>
         </is>
       </c>
